--- a/doisMatch.xlsx
+++ b/doisMatch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['School Mechanical Engineering Automation, Harbin Institute Technology, Shenzhen518055, China', 'Shenzhen Polytechnic, Shenzhen518055, China', 'College Physics Optoelectronic Engineering, Shenzhen University, Shenzhen518055, China']</t>
+          <t>['Shenzhen Polytechnic, Shenzhen518055, China', 'School Mechanical Engineering Automation, Harbin Institute Technology, Shenzhen518055, China', 'College Physics Optoelectronic Engineering, Shenzhen University, Shenzhen518055, China']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['harbin institute technology', 'shenzhen polytechnic', 'shenzhen universit']</t>
+          <t>['shenzhen polytechnic', 'harbin institute technology', 'shenzhen universit']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,131 +487,131 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['Assistant Professor, Dept Civil Environmental Engineering, 1075 13th St South, Suite 120, Univ Alabama Birmingham, Birmingham, AL 352944440', 'Associate Professor, Dept Civil Engineering, 1200 Larimer St, Univ Colorado Denver, Denver, CO 802173364']</t>
+          <t>['Department Immunohaematology Blood Bank, Leiden University Hospital, The Netherlands']</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['universit alabama birmingham', 'universidad colorado en denver']</t>
+          <t>['leiden universit']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.5, 0.57]</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['Aksaray University, Turkiye']</t>
+          <t>['Associate Professor, Dept Civil Engineering, 1200 Larimer St, Univ Colorado Denver, Denver, CO 802173364', 'Assistant Professor, Dept Civil Environmental Engineering, 1075 13th St South, Suite 120, Univ Alabama Birmingham, Birmingham, AL 352944440']</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['aksaray universit']</t>
+          <t>['universit colorado denver', 'universit alabama birmingham']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.816496580927726, 0.5]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['The Cooperative Research Center Vaccine Technology, Queensland Institute Medical Research, Royal Brisbane Hospital, Australia']</t>
+          <t>['Aksaray University, Turkiye']</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['royal brisbane womens hospital']</t>
+          <t>['aksaray universit']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.8660254037844388]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['Masaryk University']</t>
+          <t>['The Cooperative Research Center Vaccine Technology, Queensland Institute Medical Research, Royal Brisbane Hospital, Australia']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['masaryk universit']</t>
+          <t>['royal brisbane womens hospital']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['Immunology Service, Clinical Center, National Institutes Health, Bethesda, MD 20892', 'Developmental Endocrinology Branch, National Institute Child Health Human Development,', 'Arthritis Rheumatism Branch, National Institute Arthritis Musculoskeletal Skin Diseases,']</t>
+          <t>['Pan African University Institute Governance, Humanities Social Sciences, Yaounde, Cameroon']</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute child health human development', 'national institute arthritis musculoskeletal skin diseases']</t>
+          <t>['pan african universit institute governance humanities social sciences']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[0.7905694150420948]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['Anhui No 2 Provincial Peoples Hospital', 'School Nursing, Anhui Medical University']</t>
+          <t>['Masaryk University']</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'anhui medical universit']</t>
+          <t>['masaryk universit']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['-', 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['Department Food Technology, Faculty Science, Chulalongkorn University, Bangkok, Thailand', 'USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA']</t>
+          <t>['Arthritis Rheumatism Branch, National Institute Arthritis Musculoskeletal Skin Diseases,', 'Developmental Endocrinology Branch, National Institute Child Health Human Development,', 'Immunology Service, Clinical Center, National Institutes Health, Bethesda, MD 20892']</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['chulalongkorn universit', 'eastern regional research center']</t>
+          <t>['national institute arthritis musculoskeletal skin diseases', 'national institute child health human development', 'national institutes health']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['Presidency University,Dept Computer Science Engineering,Bangalore,India']</t>
+          <t>['School Nursing, Anhui Medical University', 'Anhui No 2 Provincial Peoples Hospital']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['presidency universit']</t>
+          <t>['anhui medical universit']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,233 +623,233 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['Department Chemistry, Texas AM University, PO Box 30012, College Station, Texas 778423012']</t>
+          <t>['Observatorio Amenazas y Recursos Naturales Ministerio Medio Ambiente,San Salvador,El Salvador']</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['texas am universit']</t>
+          <t>['ministerio medio ambiente y recursos naturales']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8451542547285165]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['Bezmialem Vakif University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Istanbul, Turkey', 'Marmara University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Department Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey', 'Bezmialem Vakif University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Department Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey']</t>
+          <t>['USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA', 'Department Food Technology, Faculty Science, Chulalongkorn University, Bangkok, Thailand']</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'marmara universit']</t>
+          <t>['eastern regional research center', 'chulalongkorn universit']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['-', 1, '-']</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['Division Forensic Medicine, Graduate School Medicine, Tottori University, Yonago, Japan', 'Department Anatomy, Graduate School Medicine, Tottori University, Yonago, Japan']</t>
+          <t>['Presidency University,Dept Computer Science Engineering,Bangalore,India']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['tottori universit', 'tottori universit']</t>
+          <t>['presidency universit']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['Information Science Department, Georgian College, Barrie, ON, Canada', 'Ted Rogers School Information Technology Management Ted Rogers School Management, Toronto Metropolitan University, Toronto, ON, Canada', 'Digital Health Program Manager Ontario Health, Frankford, ON, Canada']</t>
+          <t>['Department Chemistry, Texas AM University, PO Box 30012, College Station, Texas 778423012']</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['georgian college', 'universit toronto', 'unmatched organization(s)']</t>
+          <t>['texas am universit']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[1, 0.75, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['Department Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia', 'State Key Laboratory Fine Chemicals, Key Laboratory Industrial Ecology Environmental Engineering , School Environmental Science Technology, Dalian University Technology, Dalian 116024, P R China']</t>
+          <t>['Bezmialem Vakif University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Istanbul, Turkey', 'Bezmialem Vakif University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Department Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey', 'Marmara University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Department Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['curtin universit', 'dalian universit technology']</t>
+          <t>['marmara universit']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['Tulane Regional Primate Research Center, Tulane University Health Sciences Center, Covington, Louisiana', 'Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health, Bethesda, Maryland']</t>
+          <t>['Division Forensic Medicine, Graduate School Medicine, Tottori University, Yonago, Japan', 'Department Anatomy, Graduate School Medicine, Tottori University, Yonago, Japan']</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['tulane universit', 'national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['tottori universit', 'tottori universit']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[0.53, 1, 1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['University Porto']</t>
+          <t>['Ted Rogers School Information Technology Management Ted Rogers School Management, Toronto Metropolitan University, Toronto, ON, Canada', 'Digital Health Program Manager Ontario Health, Frankford, ON, Canada', 'Information Science Department, Georgian College, Barrie, ON, Canada']</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['universit porto']</t>
+          <t>['toronto metropolitan universit', 'georgian college']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>['Centre Recherches Politiques Sciences Po, Institut detudes politiques Paris Paris France', 'PhD Student, Department Political Science, The University Chicago httpsdxdoiorg2462 Chicago USA']</t>
+          <t>['Department Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia', 'State Key Laboratory Fine Chemicals, Key Laboratory Industrial Ecology Environmental Engineering , School Environmental Science Technology, Dalian University Technology, Dalian 116024, P R China']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['centre recherches politiques sciences po', 'universit chicago']</t>
+          <t>['curtin universit', 'dalian universit technology']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[1, 0.7071067811865475]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>['Department OtolaryngologyHead Neck Surgery, University California San Diego School Medicine, La Jolla']</t>
+          <t>['Obstetrical Perinatal Pediatric Epidemiology Research Team Institute Health Medical Research Centre Research Epidemiology Statistics Universite Paris Cite Paris France', 'Murdoch Childrens Research Institute Royal Childrens Hospital Parkville Victoria Australia', 'Turner Institute Brain Mental Health, School Psychological Sciences Monash University Clayton Victoria Australia']</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['universit california san diego school medicine']</t>
+          <t>['universit paris cite']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.87]</t>
+          <t>[0.7071067811865477]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>['Department Family Community Medicine, University Toronto, Toronto, ON, Canada', 'Palliative Education Care Homeless Program, Toronto, ON, Canada', 'Second Mile Club, Kensington Health, Toronto, ON, Canada']</t>
+          <t>['Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health, Bethesda, Maryland', 'Tulane Regional Primate Research Center, Tulane University Health Sciences Center, Covington, Louisiana']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['universit toronto', 'unmatched organization(s)']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases', 'tulane universit']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[1, '-', '-']</t>
+          <t>[1, 1, 0.53]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>['College Science, University Shanghai Science Technology,Shanghai,China']</t>
+          <t>['University Porto']</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['universit shanghai science technology']</t>
+          <t>['universit porto']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[0.87]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>['Department Medical Microbiology Immunology, University Ulm, FRG']</t>
+          <t>['Centre Recherches Politiques Sciences Po, Institut detudes politiques Paris Paris France', 'PhD Student, Department Political Science, The University Chicago httpsdxdoiorg2462 Chicago USA']</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['universit ulm']</t>
+          <t>['institut detudes politiques paris', 'centre recherches politiques sciences po', 'universit chicago']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8838834764831843, 1, 0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>['National University Sciences x0026 Technology,CEME,Department Engineering Management,Rawalpindi,Pakistan']</t>
+          <t>['Department OtolaryngologyHead Neck Surgery, University California San Diego School Medicine, La Jolla']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['national universit']</t>
+          <t>['universit california san diego school medicine']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[0.43]</t>
+          <t>[0.87]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>['From Departments Physiology Biophysics , CARIM, Maastricht University, Maastricht, Netherlands Dr Broeders is now Department Internal Medicine, Rijnland Hospital, Leiderdorp, Netherlands, Dr Tangelder is now Laboratory Physiology, ICARVU, Vrije Universiteit Medical Center, Amsterdam, Netherlands']</t>
+          <t>['Department Family Community Medicine, University Toronto, Toronto, ON, Canada', 'Second Mile Club, Kensington Health, Toronto, ON, Canada', 'Palliative Education Care Homeless Program, Toronto, ON, Canada']</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['maastricht universit']</t>
+          <t>['universit toronto']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,46 +861,46 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>['CNR, Istituto di Chimica dei Composti OrganoMetalliciICCOM, Sezione di Bari, Dipartimento FarmacoChimico, Universita di Bari, Via EOrabona 4, I70126 Bari, Italy']</t>
+          <t>['College Science, University Shanghai Science Technology,Shanghai,China']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['universit bari', 'istituto di chimica dei composti organometallici']</t>
+          <t>['universit shanghai science technology']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[0.816496580927726, 0.9128709291752769]</t>
+          <t>[0.87]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>['Uppsala Clinical Research Center Uppsala University Uppsala Sweden', 'Division Cardiovascular Health Diseases University Cincinnati Heart, Lung amp Vascular Institute Cincinnati OH', 'Department Cardiology, Northwest Clinics Alkmaar, Radboud University Medical Center Nijmegen The Netherlands', 'Department Cardiology, Centre Postgraduate Medical Education Grochowski Hospital Warsaw Poland', 'Department Medicine III University Heidelberg Heidelberg Germany', 'Department Infection, Immunity Cardiovascular Disease University Sheffield Sheffield United Kingdom', 'Department Medical Sciences Uppsala University Uppsala Sweden']</t>
+          <t>['CIECS, CONICET, Cordoba, Argentina', 'CONICET, Universidad Nacional Avellaneda, Avellaneda, Argentina']</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['uppsala universit', 'unmatched organization(s)', 'universit medical center', 'universit heidelberg', 'sheffield universit', 'uppsala universit']</t>
+          <t>['universidad nacional avellaneda']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0.7499999999999998, '-', 0.8660254037844388, '-', 0.71, 0.67, 0.7499999999999998]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>['Graduate School Science Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,5258577']</t>
+          <t>['Department Medical Microbiology Immunology, University Ulm, FRG']</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['ritsumeikan universit']</t>
+          <t>['universit ulm']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -912,80 +912,80 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>['From Department Cardiovascular Science Medicine, Chiba University Graduate School Medicine, Chiba, Japan Department Cardiovascular Medicine, Graduate School Medicine, University Tokyo, Tokyo, Japan Department Metabolic Diseases, Graduate School Medicine, University Tokyo, Tokyo, Japan ']</t>
+          <t>['National University Sciences x0026 Technology,CEME,Department Engineering Management,Rawalpindi,Pakistan']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['universit tokyo', 'chiba universit']</t>
+          <t>['national universit']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[1, 0.7071067811865475]</t>
+          <t>[0.43]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>['MIT,EECS x0026 CSAIL,Cambridge,MA,USA', 'Rutgers University,DIMACS,New Brunswick,NJ,USA']</t>
+          <t>['From Departments Physiology Biophysics , CARIM, Maastricht University, Maastricht, Netherlands Dr Broeders is now Department Internal Medicine, Rijnland Hospital, Leiderdorp, Netherlands, Dr Tangelder is now Laboratory Physiology, ICARVU, Vrije Universiteit Medical Center, Amsterdam, Netherlands']</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'rutgers universit']</t>
+          <t>['vrije universit medical center', 'maastricht universit']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['-', 1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>['Petrozavodsk State University City Clinical Hospital named after A K Eramishantsev']</t>
+          <t>['CNR, Istituto di Chimica dei Composti OrganoMetalliciICCOM, Sezione di Bari, Dipartimento FarmacoChimico, Universita di Bari, Via EOrabona 4, I70126 Bari, Italy']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['petrozavodsk state universit']</t>
+          <t>['istituto di chimica dei composti organometallici', 'universit bari']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[0.7745966692414834]</t>
+          <t>[0.9128709291752769, 0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>['Division Pharmaceutics, Department Pharmacology, Toxicology Therapeutics School Pharmacy, Showa University']</t>
+          <t>['Department Medicine III University Heidelberg Heidelberg Germany', 'Department Cardiology, Northwest Clinics Alkmaar, Radboud University Medical Center Nijmegen The Netherlands', 'Department Cardiology, Centre Postgraduate Medical Education Grochowski Hospital Warsaw Poland', 'Division Cardiovascular Health Diseases University Cincinnati Heart, Lung amp Vascular Institute Cincinnati OH', 'Department Infection, Immunity Cardiovascular Disease University Sheffield Sheffield United Kingdom', 'Uppsala Clinical Research Center Uppsala University Uppsala Sweden', 'Department Medical Sciences Uppsala University Uppsala Sweden']</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['showa universit']</t>
+          <t>['heidelberg universit', 'universit medical center', 'universit sheffield', 'uppsala universit', 'uppsala universit']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.71, 0.8660254037844388, 0.7499999999999998, 0.7499999999999998, 0.7499999999999998]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>['Laboratory Immunology, National Institute Allergy Infectious Diseases, Bethesda, MD 20892']</t>
+          <t>['Graduate School Science Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,5258577']</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases']</t>
+          <t>['ritsumeikan universit']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -997,63 +997,63 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>['From Institute Experimental Clinical Pharmacology Toxicology Institute Anatomy , FriedrichAlexander University ErlangenNuremberg, Erlangen, Germany Institute Pharmacology Toxicology , Dresden University Technology, Dresden, Germany Department Experimental Cardiology , MaxPlanckInstitute, Bad Nauheim, Germany']</t>
+          <t>['From Department Cardiovascular Science Medicine, Chiba University Graduate School Medicine, Chiba, Japan Department Cardiovascular Medicine, Graduate School Medicine, University Tokyo, Tokyo, Japan Department Metabolic Diseases, Graduate School Medicine, University Tokyo, Tokyo, Japan ']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['universit technology', 'universit erlangennuremberg']</t>
+          <t>['universit tokyo', 'chiba universit']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[0.816496580927726, 0.816496580927726]</t>
+          <t>[1, 0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>['GAZI UNIVERSITESI, GAZI EGITIM FAKULTESI', 'Gazi Universitesi']</t>
+          <t>['Rutgers University,DIMACS,New Brunswick,NJ,USA', 'MIT,EECS x0026 CSAIL,Cambridge,MA,USA']</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['gazi universit', 'gazi universit']</t>
+          <t>['rutgers universit']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>['College Safety Science Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China', 'State Key Laboratory Cultivation Base Gas Geology Gas Control, Jiaozuo 454003, Henan, P R China', 'School Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China', 'State Collaborative Innovation Center Coal Work Safety CleanEfficiency Utilization, Jiaozuo 454003, Henan, P R China']</t>
+          <t>['Petrozavodsk State University City Clinical Hospital named after A K Eramishantsev']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['henan polytechnic universit', 'unmatched organization(s)', 'henan polytechnic universit']</t>
+          <t>['petrozavodsk state universit']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[1, '-', 1, '-']</t>
+          <t>[0.7745966692414834]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>['Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA']</t>
+          <t>['Division Pharmaceutics, Department Pharmacology, Toxicology Therapeutics School Pharmacy, Showa University']</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['carnegie mellon universit']</t>
+          <t>['showa universit']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1065,284 +1065,284 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>['Nanjing University,State Key Laboratory Novel Software Technology,Nanjing,China', 'Zhejiang University,School Software Technology,Ningbo,China', 'Northeast Petroleum University,School Petroleum Engineering,Heilongjiang,China']</t>
+          <t>['Laboratory Immunology, National Institute Allergy Infectious Diseases, Bethesda, MD 20892']</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['nanjing universit', 'zhejiang universit', 'northeast petroleum universit']</t>
+          <t>['national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>['Dept Electrical Engineering Computer Science, University Illinois Chicago , 851 S Morgan St Fl 11, Chicago IL 606077053, USA', 'Lehrstuhl Effiziente Algorithmen, Institut Informatik, Technische Universitat Munchen, D80290 Munchen, Germany']</t>
+          <t>['From Institute Experimental Clinical Pharmacology Toxicology Institute Anatomy , FriedrichAlexander University ErlangenNuremberg, Erlangen, Germany Institute Pharmacology Toxicology , Dresden University Technology, Dresden, Germany Department Experimental Cardiology , MaxPlanckInstitute, Bad Nauheim, Germany']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['universit illinois chicago', 'technische universit munchen']</t>
+          <t>['universit technology', 'universit erlangennuremberg']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.816496580927726, 0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>['Hirosaki University']</t>
+          <t>['GAZI UNIVERSITESI, GAZI EGITIM FAKULTESI', 'Gazi Universitesi']</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['hirosaki universit']</t>
+          <t>['gazi universit', 'gazi universit']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>['Volgodonsk Engineering Technical Institute branch National Research Nuclear University MEPhI']</t>
+          <t>['State Collaborative Innovation Center Coal Work Safety CleanEfficiency Utilization, Jiaozuo 454003, Henan, P R China', 'College Safety Science Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China', 'State Key Laboratory Cultivation Base Gas Geology Gas Control, Jiaozuo 454003, Henan, P R China', 'School Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['seversky technological institute branch national research nuclear universit mephi']</t>
+          <t>['henan polytechnic universit', 'henan polytechnic universit']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[0.84]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>['Azerbaijan State Oil Industry University, Azerbaijan']</t>
+          <t>['Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA']</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['azerbaijan state universit oil industry']</t>
+          <t>['carnegie mellon universit']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[0.8944271909999159]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>['University Chicago, Ben May Institute, IL 60637']</t>
+          <t>['Zhejiang University,School Software Technology,Ningbo,China', 'Nanjing University,State Key Laboratory Novel Software Technology,Nanjing,China', 'Northeast Petroleum University,School Petroleum Engineering,Heilongjiang,China']</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['universit chicago']</t>
+          <t>['zhejiang universit', 'nanjing universit', 'northeast petroleum universit']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>['Materials Engineering Scientist, Saint Gobain Technical Fabrics, PO Box 728, St Catharines ON, Canada L2R 6Y3', 'Director, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400', 'Professor, Dept Industrial Engineering Management Science, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400', 'Research Assistant, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400', 'Associate Director, National Institute Statistical Sciences, PO Box 14006, Research Triangle Park, NC 277094006']</t>
+          <t>['Dept Electrical Engineering Computer Science, University Illinois Chicago , 851 S Morgan St Fl 11, Chicago IL 606077053, USA', 'Lehrstuhl Effiziente Algorithmen, Institut Informatik, Technische Universitat Munchen, D80290 Munchen, Germany']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'universit northwestern', 'universit northwestern', 'universit northwestern', 'national institute statistical sciences']</t>
+          <t>['universit illinois chicago', 'technische universit munchen']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['-', 0.28, 0.35, 0.28, 1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>['Department Microbiology, Lobund Laboratory, University Notre Dame From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213', 'Department Pathology, University Pittsburgh, School Medicine From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213']</t>
+          <t>['Hirosaki University']</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['universit notre dame', 'universit pittsburgh']</t>
+          <t>['hirosaki universit']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>['Institute State Law Russian Academy Sciences', 'RNIIIS']</t>
+          <t>['Volgodonsk Engineering Technical Institute branch National Research Nuclear University MEPhI']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['federal state institution science institute state law russian academy sciences', 'unmatched organization(s)']</t>
+          <t>['seversky technological institute branch national research nuclear universit mephi']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[0.8249579113843056, '-']</t>
+          <t>[0.84]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>['Department Organic Inorganic Chemistry, Faculty Sciences, Vrije Universiteit, De Boelelaan 1083, NL1081 HV, Amsterdam, The Netherlands, Bijvoet Center Biomolecular Research, Department Crystal Structural Chemistry, Utrecht University, Padualaan 8, NL3584 CH, Utrecht, The Netherlands']</t>
+          <t>['Azerbaijan State Oil Industry University, Azerbaijan']</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['utrecht universit', 'vrije universit']</t>
+          <t>['azerbaijan state universit oil industry']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>['Department Clinical Immunology, University Hospital, Copenhagen, Denmark']</t>
+          <t>['University Chicago, Ben May Institute, IL 60637']</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['copenhagen universit hospital']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[0.87]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>['Apache Point Observatory, Sunspot, New Mexico, United States', 'University Washington, Astronomy Department, Seattle, Washington, United States']</t>
+          <t>['Director, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400', 'Associate Director, National Institute Statistical Sciences, PO Box 14006, Research Triangle Park, NC 277094006', 'Professor, Dept Industrial Engineering Management Science, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400', 'Materials Engineering Scientist, Saint Gobain Technical Fabrics, PO Box 728, St Catharines ON, Canada L2R 6Y3', 'Research Assistant, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'universit washington']</t>
+          <t>['northwestern universit', 'national institute statistical sciences', 'northwestern universit', 'northwestern universit']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['-', 1]</t>
+          <t>[0.28, 1, 0.35, 0.28]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>['Botanisches Institut, Universitat zu Koln, Lehrstuhl I, Gyrhofstrasse 15, D50931 Cologne, Germany']</t>
+          <t>['Department Pathology, University Pittsburgh, School Medicine From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213', 'Department Microbiology, Lobund Laboratory, University Notre Dame From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213']</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['universit zu koln']</t>
+          <t>['universit pittsburgh', 'universit notre dame']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>['United States Department Agriculture, ARS, Regional Poultry Research Laboratory From , 550 First Avenue, New York, New York 10016 The , East Lansing, Michigan 48823', 'Department Pathology, New York University School Medicine From , 550 First Avenue, New York, New York 10016 The , East Lansing, Michigan 48823']</t>
+          <t>['Institute State Law Russian Academy Sciences', 'RNIIIS']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'new york universit school medicine']</t>
+          <t>['federal state institution science institute state law russian academy sciences']</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['-', 1]</t>
+          <t>[0.8249579113843056]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>['Flossbach von Storch Research Institute, Ottoplatz 1 Koln Germany', 'Leipzig University Institute Economic Policy, Grimmaische Straße 12 Leipzig Germany']</t>
+          <t>['Department Organic Inorganic Chemistry, Faculty Sciences, Vrije Universiteit, De Boelelaan 1083, NL1081 HV, Amsterdam, The Netherlands, Bijvoet Center Biomolecular Research, Department Crystal Structural Chemistry, Utrecht University, Padualaan 8, NL3584 CH, Utrecht, The Netherlands']</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'leipzig universit']</t>
+          <t>['utrecht universit', 'vrije universit']</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['-', 0.61]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>['Zhihui Big Data Research Institute Inner Mongolia', 'Beijing Chaoyang Hospital Capital Medical UniversityBeijing Center Clinical Laboratories', 'Jilin Provincial Hospital Tuberculosis', 'Comprehensive Disease Control Prevention Center Inner Mongolia Autonomous Region', 'National Institute Metrology China', 'Beijing Heping Li Hospital', 'Beijing Jishuitan Hospital', 'Beijing ChaoYang Hospital Capital Medical University Beijing Chaoyang Hospital', 'Beijing Jinfengyitong Technology Co,Ltd', 'Changchun Infectious Disease Hospital']</t>
+          <t>['Department Clinical Immunology, University Hospital, Copenhagen, Denmark']</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'inner mongolia autonomous region comprehensive disease prevention control center', 'capital medical universit']</t>
+          <t>['copenhagen universit hospital']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['-', '-', '-', 1, '-', '-', '-', 0.7071067811865477, '-', '-']</t>
+          <t>[0.87]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>['College Criminal Justice, Naif Arab University Security Sciences, Saudi Arabia']</t>
+          <t>['Apache Point Observatory, Sunspot, New Mexico, United States', 'University Washington, Astronomy Department, Seattle, Washington, United States']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['naif arab universit security sciences']</t>
+          <t>['universit washington']</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>['University SouthEastern Norway,Department Maritime Operations,Horten,Norway']</t>
+          <t>['Botanisches Institut, Universitat zu Koln, Lehrstuhl I, Gyrhofstrasse 15, D50931 Cologne, Germany']</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['universit southeastern norway']</t>
+          <t>['universit zu koln']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,80 +1371,80 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>['HealthPartners Institute, Minneapolis, Minnesota', 'Department Obstetrics Gynecology, New York University Grossman School Medicine, New York', 'Department Population Health Sciences, Weill Cornell Medicine, New York, New York']</t>
+          <t>['Department Pathology, New York University School Medicine From , 550 First Avenue, New York, New York 10016 The , East Lansing, Michigan 48823', 'United States Department Agriculture, ARS, Regional Poultry Research Laboratory From , 550 First Avenue, New York, New York 10016 The , East Lansing, Michigan 48823']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'new york universit']</t>
+          <t>['new york universit school medicine']</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['-', 0.83, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>['Centre Neuroscience Research, GKT School Biomedical Sciences, Kings College London, London SE1 1UL, UK', 'Neurobiology Laboratory, Stazione ZoologicaA Dohrn, Villa Comunale, 80121 Naples, Italy', 'Institute Enzyme Research, Tokushima University, Tokushima 7708503, Japan', 'Laboratory Biology, Graduate School Commerce Management, Hitotsubashi University, Tokyo 1868601, Japan']</t>
+          <t>['Flossbach von Storch Research Institute, Ottoplatz 1 Koln Germany', 'Leipzig University Institute Economic Policy, Grimmaische Straße 12 Leipzig Germany']</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['kings college london', 'unmatched organization(s)', 'universit tokushima', 'hitotsubashi universit']</t>
+          <t>['universit leipzig']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[1, '-', 1, 1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>['Freie Universitat Berlin']</t>
+          <t>['Changchun Infectious Disease Hospital', 'Jilin Provincial Hospital Tuberculosis', 'Beijing Chaoyang Hospital Capital Medical UniversityBeijing Center Clinical Laboratories', 'Comprehensive Disease Control Prevention Center Inner Mongolia Autonomous Region', 'Beijing ChaoYang Hospital Capital Medical University Beijing Chaoyang Hospital', 'Beijing Jinfengyitong Technology Co,Ltd', 'Beijing Jishuitan Hospital', 'National Institute Metrology China', 'Beijing Heping Li Hospital', 'Zhihui Big Data Research Institute Inner Mongolia']</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['freie universit berlin']</t>
+          <t>['inner mongolia comprehensive disease prevention control center', 'capital medical universit']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8819171036881966, 0.7071067811865477]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>['Department Electrical Engineering Information Technology, Shandong University Science Technology, Jinan 250031, China', 'School Computer Science, Qufu Normal University, Rizhao 276826, China']</t>
+          <t>['College Criminal Justice, Naif Arab University Security Sciences, Saudi Arabia']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['shandong universit science technology', 'qufu normal universit']</t>
+          <t>['naif arab universit security sciences']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>['Department Pathology, University Michigan, Ann Arbor 48109']</t>
+          <t>['University SouthEastern Norway,Department Maritime Operations,Horten,Norway']</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['universit michigan']</t>
+          <t>['universit southeastern norway']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1456,46 +1456,46 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>['Tokushima University']</t>
+          <t>['Department Population Health Sciences, Weill Cornell Medicine, New York, New York', 'HealthPartners Institute, Minneapolis, Minnesota', 'Department Obstetrics Gynecology, New York University Grossman School Medicine, New York']</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['universit tokushima']</t>
+          <t>['new york universit']</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.83]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>['Department Bioquimica e Imunologia, Universidade Federal Minas Gerais, Brazil']</t>
+          <t>['Institute Enzyme Research, Tokushima University, Tokushima 7708503, Japan', 'Centre Neuroscience Research, GKT School Biomedical Sciences, Kings College London, London SE1 1UL, UK', 'Laboratory Biology, Graduate School Commerce Management, Hitotsubashi University, Tokyo 1868601, Japan', 'Neurobiology Laboratory, Stazione ZoologicaA Dohrn, Villa Comunale, 80121 Naples, Italy']</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['universidade federal minas gerais']</t>
+          <t>['tokushima universit', 'kings college london', 'hitotsubashi universit']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>['Department Microbiology, University Tennessee, Knoxville 379960845']</t>
+          <t>['Freie Universitat Berlin']</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['universit tennessee']</t>
+          <t>['freie universit berlin']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1507,420 +1507,420 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>['Argonne Cancer Research Hospital , , 1 Chicago, Illinois 60637', 'Department Medicine, The University Chicago, Pritzker School Medicine , , 1 Chicago, Illinois 60637']</t>
+          <t>['School Computer Science, Qufu Normal University, Rizhao 276826, China', 'Department Electrical Engineering Information Technology, Shandong University Science Technology, Jinan 250031, China']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'universit chicago']</t>
+          <t>['qufu normal universit', 'shandong universit science technology']</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['-', 0.816496580927726]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>['Manipal Institute Technology,Department Aeronautical x0026 Automobile Engg,Udupi,India', 'Manipal Institute Technology,Department ECE x0026 Centre Excellence Avionics x0026 Navigation,Udupi,India', 'Manipal University,Department Information Technology,Jaipur', 'Manipal Institute Technology,Department ECE,Udupi,India']</t>
+          <t>['Department Pathology, University Michigan, Ann Arbor 48109']</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'manipal universit', 'department electronics information technology']</t>
+          <t>['universit michigan']</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['-', '-', 1, 0.8660254037844388, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>['College Artificial Intelligence, Nankai University,Tianjin,China', 'School Vehicle Mobility, Tsinghua University,Beijing,China']</t>
+          <t>['Tokushima University']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['nankai universit', 'tsinghua universit']</t>
+          <t>['tokushima universit']</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>['Center Biomedical Imaging Technology, University Connecticut Health Center, Farmington, Connecticut 06117']</t>
+          <t>['Department Bioquimica e Imunologia, Universidade Federal Minas Gerais, Brazil']</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['universit connecticut health center']</t>
+          <t>['universidade federal minas gerais']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[0.77]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>['Department Internal Medicine, University Iowa College Medicine, Iowa City 52242, USA']</t>
+          <t>['Department Microbiology, University Tennessee, Knoxville 379960845']</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
+          <t>['universit tennessee']</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>['Human Research Ethics Committee, National Institute Integrative Medicine, Gisborne, Australia']</t>
+          <t>['Department Medicine, The University Chicago, Pritzker School Medicine , , 1 Chicago, Illinois 60637', 'Argonne Cancer Research Hospital , , 1 Chicago, Illinois 60637']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['national institute integrative medicine']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>['Chechen State University Named after A A Kadyrova', 'Dagestan State University']</t>
+          <t>['Moscow Automobile Road Construction State Technical University ', 'Scientific Center Complex Transport Problems Ministry Transport Russian Federation ']</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['chechen state universit', 'dagestan state universit']</t>
+          <t>['moscow automobile road construction state technical universit']</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[0.7745966692414834, 1]</t>
+          <t>[0.7559289460184544]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>['Laboratory Microbial Immunity, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland']</t>
+          <t>['Manipal Institute Technology,Department ECE,Udupi,India', 'Manipal Institute Technology,Department Aeronautical x0026 Automobile Engg,Udupi,India', 'Manipal University,Department Information Technology,Jaipur', 'Manipal Institute Technology,Department ECE x0026 Centre Excellence Avionics x0026 Navigation,Udupi,India']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['department electronics information technology', 'manipal universit']</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[0.8660254037844388, 1]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>['2Pathology, University Iowa, Iowa City, IA', '1Immunology, Mayo Clinic, Rochester, MN', '4Health Science Research, Mayo Clinic, Rochester, MN', '3Neurology, Henry Ford Hlth Sys, Detroit, MI']</t>
+          <t>['College Artificial Intelligence, Nankai University,Tianjin,China', 'School Vehicle Mobility, Tsinghua University,Beijing,China']</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['universit iowa', 'unmatched organization(s)']</t>
+          <t>['nankai universit', 'tsinghua universit']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[1, '-', '-', '-']</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>['Beijing University Technology,China', 'Carleton University,Canada', 'Tianjin University,China']</t>
+          <t>['Center Biomedical Imaging Technology, University Connecticut Health Center, Farmington, Connecticut 06117']</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['beijing universit technology', 'carleton universit', 'tianjin universit']</t>
+          <t>['universit connecticut health center']</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[0.77]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>['Department English Communication, The International Research Centre Advancement Health Communication, The Hong Kong Polytechnic University']</t>
+          <t>['Department Internal Medicine, University Iowa College Medicine, Iowa City 52242, USA']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['hong kong polytechnic universit']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>['Department Medicine, Division Infectious Diseases, Zealand University Hospital Roskilde, Denmark']</t>
+          <t>['Human Research Ethics Committee, National Institute Integrative Medicine, Gisborne, Australia']</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['zealand universit hospital']</t>
+          <t>['national institute integrative medicine']</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[0.55]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>['Department Biology, Queens University, Kingston, Ontario, Canada K7L 3N6', 'Department Biochemistry, Queens University, Kingston, Ontario, Canada K7L 3N6']</t>
+          <t>['Dagestan State University', 'Chechen State University Named after A A Kadyrova']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['queens universit', 'queens universit']</t>
+          <t>['dagestan state universit', 'chechen state universit']</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 0.7745966692414834]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>['Institute Flight Mechanics Controls,The Faculty Aerospace Engineering Geodesy,University Stuttgart,Stuttgart,Germany,70569', 'Max Planck Institute Intelligent Systems,Tx00FCbingen,Germany,72076']</t>
+          <t>['Laboratory Microbial Immunity, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland']</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['universit stuttgart', 'max planck institute intelligent systems']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>['Hohhot Vocational College, Mechanical Electrical Engineering Department, Hohhot, China', 'Inner Mongolia Agricultural University, Mechanical Electrical Engineering College, Hohhot, China']</t>
+          <t>['4Health Science Research, Mayo Clinic, Rochester, MN', '3Neurology, Henry Ford Hlth Sys, Detroit, MI', '2Pathology, University Iowa, Iowa City, IA', '1Immunology, Mayo Clinic, Rochester, MN']</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'inner mongolia agricultural universit', 'shenyang mechanical electrical engineering college']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['-', 1, 0.8944271909999159]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>['Department Biology, University California, San Diego, La Jolla 920930063']</t>
+          <t>['Tianjin University,China', 'Carleton University,Canada', 'Beijing University Technology,China']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['universit california san diego']</t>
+          <t>['tianjin universit', 'carleton universit', 'beijing universit technology']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[0.76]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>['Department Materials Science Engineering Dalian Maritime University Dalian 116085 China', 'Division Energy Storage Dalian National Laboratory Clean Energy Dalian Institute Chemical Physics Chinese Academy Sciences Dalian 116023 China']</t>
+          <t>['Department English Communication, The International Research Centre Advancement Health Communication, The Hong Kong Polytechnic University']</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['dalian maritime universit', 'unmatched organization(s)']</t>
+          <t>['hong kong polytechnic universit']</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[0.67, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>['Division Clinical Immunology, Department Medicine, University Colorado Medical School , Denver, Colorado 80220']</t>
+          <t>['Department Medicine, Division Infectious Diseases, Zealand University Hospital Roskilde, Denmark']</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['universit colorado anschutz medical campus']</t>
+          <t>['zealand universit hospital']</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[0.7745966692414834]</t>
+          <t>[0.55]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>['Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892']</t>
+          <t>['Department Biology, Queens University, Kingston, Ontario, Canada K7L 3N6', 'Department Biochemistry, Queens University, Kingston, Ontario, Canada K7L 3N6']</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['queens universit', 'queens universit']</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>['KUTAHYA DUMLUPINAR UNIVERSITESI']</t>
+          <t>['Max Planck Institute Intelligent Systems,Tx00FCbingen,Germany,72076', 'Institute Flight Mechanics Controls,The Faculty Aerospace Engineering Geodesy,University Stuttgart,Stuttgart,Germany,70569']</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['dumlupinar universit']</t>
+          <t>['max planck institute intelligent systems', 'universit stuttgart']</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>['Laboratory Immunology, Division Hematologic Products, Center Biologics Evaluation Research Review, US Food Drug Administration, Bethesda, MD']</t>
+          <t>['Hohhot Vocational College, Mechanical Electrical Engineering Department, Hohhot, China', 'Inner Mongolia Agricultural University, Mechanical Electrical Engineering College, Hohhot, China']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['center biologics evaluation research']</t>
+          <t>['inner mongolia agricultural universit', 'shenyang mechanical electrical engineering college']</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[0.8944271909999159]</t>
+          <t>[1, 0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>['UFZHelmholtz Centre Environmental Research, Department Community Ecology, TheodorLieserStrasse 4 Halle Germany', 'State Key Laboratory Tibetan Plateau Earth System, Environment Resources , Chinese Academy Sciences Beijing China', 'Institute General Ecology Environmental Protection, Technische Universitat Dresden, Pienner Strasse 7 Tharandt Germany', 'CEFE, Univ Montpellier, CNRS, EPHE, IRD, 1919, route Mende Montpellier Cedex 5 France', 'Institute Geography, University Tubingen, Rumelinstrasse 1923 Tubingen Germany', 'College Resources Environment, University Chinese Academy Sciences Beijing China', 'Institute BiologyGeobotany Botanical Garden, Martin Luther University HalleWittenberg, Am Kirchtor 1 Halle Germany', 'German Centre Integrative Biodiversity Research HalleJenaLeipzig, Puschstrasse 4 Leipzig Germany', 'Leipzig Institute Meteorology, Universitat Leipzig, Stephanstraße 3 Leipzig Germany', 'Jiangxi Key Laboratory Plant Resources Biodiversity Jingdezhen University Jingdezhen China', 'Institute Biology, Leipzig University, Puschstrasse 4 Leipzig Germany', 'College Forestry Jiangxi Agricultural University Nanchang China', 'Beijing Yanshan Earth Critical Zone National Research Station University Chinese Academy Sciences Beijing China']</t>
+          <t>['Department Biology, University California, San Diego, La Jolla 920930063']</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['helmholtz centre environmental research', 'unmatched organization(s)', 'montpellier 1 universit', 'cnrs', 'universit tubingen', 'universit chinese academy sciences', 'martin luther universit hallewittenberg', 'universit leipzig', 'jingdezhen universit', 'leipzig universit', 'jiangxi agricultural universit', 'national research universit']</t>
+          <t>['universit california san diego']</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, '-', '-', 0.53, 1, 1, 0.8660254037844388, 1, '-', 1, 0.7499999999999998, 1, 0.65, 0.7071067811865477]</t>
+          <t>[0.76]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>['Laboratory Immunology, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014']</t>
+          <t>['Division Energy Storage Dalian National Laboratory Clean Energy Dalian Institute Chemical Physics Chinese Academy Sciences Dalian 116023 China', 'Department Materials Science Engineering Dalian Maritime University Dalian 116085 China']</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['dalian maritime universit']</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[0.67]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>['Blood Bank Department, Clinical Center, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014', 'Laboratory Infectious Diseases, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014']</t>
+          <t>['Division Clinical Immunology, Department Medicine, University Colorado Medical School , Denver, Colorado 80220']</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['universit colorado anschutz medical campus']</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, 1, 0.8660254037844388]</t>
+          <t>[0.7745966692414834]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>['University Cantabria, Spain']</t>
+          <t>['Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892']</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['universit cantabria']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1932,97 +1932,97 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>['Department Neurosurgery, Osaka University Graduate School Medicine', 'Department Neurosurgery, Hanwa Memorial Hospital', 'Department Neurosurgery, Kinki Central Hospital Mutual Aid Association Public School Teachers']</t>
+          <t>['KUTAHYA DUMLUPINAR UNIVERSITESI']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['osaka graduate universit', 'unmatched organization(s)']</t>
+          <t>['dumlupinar universit']</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[0.77, '-', '-']</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>['Universitat Konstanz, Fakultat Biologie, Germany']</t>
+          <t>['Laboratory Immunology, Division Hematologic Products, Center Biologics Evaluation Research Review, US Food Drug Administration, Bethesda, MD']</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['universit konstanz']</t>
+          <t>['center biologics evaluation research']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>['Department Medicine, Johns Hopkins Asthma Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA']</t>
+          <t>['German Centre Integrative Biodiversity Research HalleJenaLeipzig, Puschstrasse 4 Leipzig Germany', 'CEFE, Univ Montpellier, CNRS, EPHE, IRD, 1919, route Mende Montpellier Cedex 5 France', 'Beijing Yanshan Earth Critical Zone National Research Station University Chinese Academy Sciences Beijing China', 'Jiangxi Key Laboratory Plant Resources Biodiversity Jingdezhen University Jingdezhen China', 'College Resources Environment, University Chinese Academy Sciences Beijing China', 'State Key Laboratory Tibetan Plateau Earth System, Environment Resources , Chinese Academy Sciences Beijing China', 'Institute General Ecology Environmental Protection, Technische Universitat Dresden, Pienner Strasse 7 Tharandt Germany', 'UFZHelmholtz Centre Environmental Research, Department Community Ecology, TheodorLieserStrasse 4 Halle Germany', 'Institute Biology, Leipzig University, Puschstrasse 4 Leipzig Germany', 'Leipzig Institute Meteorology, Universitat Leipzig, Stephanstraße 3 Leipzig Germany', 'Institute Geography, University Tubingen, Rumelinstrasse 1923 Tubingen Germany', 'Institute BiologyGeobotany Botanical Garden, Martin Luther University HalleWittenberg, Am Kirchtor 1 Halle Germany', 'College Forestry Jiangxi Agricultural University Nanchang China']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['johns hopkins universit']</t>
+          <t>['universit montpellier', 'cnrs', 'national research universit', 'jingdezhen universit', 'universit chinese academy sciences', 'technische universit dresden', 'helmholtz centre environmental research', 'leipzig universit', 'universit leipzig', 'universit tubingen', 'martin luther universit hallewittenberg', 'china agricultural universit']</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.53, 1, 0.7071067811865477, 0.7499999999999998, 0.8660254037844388, 1, 0.8660254037844388, 1, 1, 1, 1, 0.65]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>['College Computer Science, Civil Aviation Flight University China, Guanghan, China']</t>
+          <t>['Laboratory Immunology, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014']</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['civil aviation flight universit china']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>['University California,RoMeLa ,Los Angeles,USA']</t>
+          <t>['Blood Bank Department, Clinical Center, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014', 'Laboratory Infectious Diseases, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014']</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['universit california los angeles']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[0.82]</t>
+          <t>[0.8660254037844388, 1, 0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>['SULEYMAN DEMIREL UNIVERSITESI']</t>
+          <t>['University Cantabria, Spain']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['suleyman demirel universit']</t>
+          <t>['universit cantabria']</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2034,46 +2034,46 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>['Columbia University,USA', 'Cornell University,Department Computer Science,Ithaca,NY,USA', 'School Electronic Information Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China']</t>
+          <t>['Department Neurosurgery, Osaka University Graduate School Medicine', 'Department Neurosurgery, Hanwa Memorial Hospital', 'Department Neurosurgery, Kinki Central Hospital Mutual Aid Association Public School Teachers']</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['columbia universit', 'cornell universit', 'shanghai jiao tong universit']</t>
+          <t>['osaka graduate universit']</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[0.77]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>['Massachusetts Institute Technology,Laboratory Information Decision Systems,Cambridge,MA,USA,02139', 'Perception Embedded ML Group,Draper,Cambridge,MA,USA,02139', 'Massachusetts Institute Technology,Department Aeronautics Astronautics,Cambridge,MA,USA,02139', 'Massachusetts Institute Technology,Faculty Aeronautics Astronautics,Cambridge,MA,USA,02139']</t>
+          <t>['Universitat Konstanz, Fakultat Biologie, Germany']</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology', 'unmatched organization(s)']</t>
+          <t>['universit konstanz']</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[1, '-', '-', '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>['Department Pathology, Uniformed Services University Health Sciences, Bethesda, MD 20814']</t>
+          <t>['Department Medicine, Johns Hopkins Asthma Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA']</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['uniformed services universit health sciences']</t>
+          <t>['johns hopkins universit']</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2085,12 +2085,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>['Department Oral Maxillofacial Surgery, School Dentistry, Pusan National University, Yangsan, Korea']</t>
+          <t>['College Computer Science, Civil Aviation Flight University China, Guanghan, China']</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['pusan national universit']</t>
+          <t>['civil aviation flight universit china']</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2102,80 +2102,80 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>['School Materials Sun YatSen University Guangzhou Guangdong 510275 China', 'South China Academy Advanced Optoelectronics South China Normal University Guangzhou 510006 China', 'Guangzhou Key Laboratory Analytical Chemistry Biomedicine South China Normal University Guangzhou 510006 China', 'State Key Laboratory Optoelectronic Materials Technologies Guangzhou Guangdong 510275 China', 'Department Materials Science Engineering Sun YatSen University Guangzhou 510275 China']</t>
+          <t>['University California,RoMeLa ,Los Angeles,USA']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['sun yatsen universit', 'south china normal universit', 'south china normal universit', 'unmatched organization(s)', 'sun yatsen universit']</t>
+          <t>['universit california los angeles']</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[0.7071067811865477, 0.78, 0.61, '-', 0.7071067811865477]</t>
+          <t>[0.82]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>['Laboratory Microbiology Immunology, National Institute Dental Research, National Institutes Health From , Bethesda, Maryland , , Washington, District Columbia', 'Department Microbiology, The George Washington University Medical Center From , Bethesda, Maryland , , Washington, District Columbia']</t>
+          <t>['SULEYMAN DEMIREL UNIVERSITESI']</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['national institutes health', 'universit washington medical center']</t>
+          <t>['suleyman demirel universit']</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[0.87, 0.67]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>['Institute General Pathology, University Palermo, ISMEDACNR, Italy']</t>
+          <t>['School Electronic Information Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China', 'Columbia University,USA', 'Cornell University,Department Computer Science,Ithaca,NY,USA']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['universit palermo']</t>
+          <t>['shanghai jiao tong universit', 'columbia universit', 'cornell universit']</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>['University ErlangenNurnberg, Faculty Medicine, Department Medicine IV, Erlangen, Germany']</t>
+          <t>['Massachusetts Institute Technology,Laboratory Information Decision Systems,Cambridge,MA,USA,02139', 'Perception Embedded ML Group,Draper,Cambridge,MA,USA,02139', 'Massachusetts Institute Technology,Department Aeronautics Astronautics,Cambridge,MA,USA,02139', 'Massachusetts Institute Technology,Faculty Aeronautics Astronautics,Cambridge,MA,USA,02139']</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['universit erlangen']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[0.43]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>['Department Chemistry, University British Columbia, Vancouver, BC, Canada, V6T 1Z1']</t>
+          <t>['Department Pathology, Uniformed Services University Health Sciences, Bethesda, MD 20814']</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
+          <t>['uniformed services universit health sciences']</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2187,63 +2187,63 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>['BCN MedTech, Department Information Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain', 'Serra Hx00FAnter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain', 'Department Biomedical Engineering Mechanics, Virginia Tech, Blacksburg, VA, USA']</t>
+          <t>['Department Oral Maxillofacial Surgery, School Dentistry, Pusan National University, Yangsan, Korea']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['universit pompeu fabra', 'universit pompeu fabra', 'virginia tech']</t>
+          <t>['pusan national universit']</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>['PhD Candidate, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 Lecture Research Assistant, Dept Structural Engineering, Future Univ, Cairo 11835, Egypt', 'Professor, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 ']</t>
+          <t>['South China Academy Advanced Optoelectronics South China Normal University Guangzhou 510006 China', 'School Materials Sun YatSen University Guangzhou Guangdong 510275 China', 'Guangzhou Key Laboratory Analytical Chemistry Biomedicine South China Normal University Guangzhou 510006 China', 'Department Materials Science Engineering Sun YatSen University Guangzhou 510275 China', 'State Key Laboratory Optoelectronic Materials Technologies Guangzhou Guangdong 510275 China']</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['universit manitoba', 'future universit', 'universit manitoba']</t>
+          <t>['south china normal universit', 'sun yatsen universit', 'south china normal universit', 'sun yatsen universit']</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[0.7071067811865475, 0.7071067811865475, 0.7071067811865475]</t>
+          <t>[0.78, 0.7071067811865477, 0.61, 0.7071067811865477]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>['Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador']</t>
+          <t>['Laboratory Microbiology Immunology, National Institute Dental Research, National Institutes Health From , Bethesda, Maryland , , Washington, District Columbia', 'Department Microbiology, The George Washington University Medical Center From , Bethesda, Maryland , , Washington, District Columbia']</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['salesian universit']</t>
+          <t>['national institutes health', 'washington universit medical center']</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[0.87, 0.67]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>['Department Transplantation Immunology, Institute Immunology, University Heidelberg, Germany']</t>
+          <t>['Institute General Pathology, University Palermo, ISMEDACNR, Italy']</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['universit heidelberg']</t>
+          <t>['universit palermo']</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2255,131 +2255,131 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>['Graphic Era Hill University,Department ECE,Bhimtal,India', 'Graphic Era University,Department ECE,Dehradun,India']</t>
+          <t>['University ErlangenNurnberg, Faculty Medicine, Department Medicine IV, Erlangen, Germany']</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['graphic era universit', 'graphic era universit']</t>
+          <t>['universit erlangen']</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, 1]</t>
+          <t>[0.43]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>['KAHRAMANMARAS SUTCU IMAM UNIVERSITESI, KAHRAMANMARAS MESLEK YUKSEKOKULU', 'ANKARA HACI BAYRAM VELI UNIVERSITESI']</t>
+          <t>['Department Chemistry, University British Columbia, Vancouver, BC, Canada, V6T 1Z1']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit', 'unmatched organization(s)']</t>
+          <t>['universit british columbia']</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[1, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>['Department Pathology, University Maryland, School Medicine, Baltimore 21201']</t>
+          <t>['Department Biomedical Engineering Mechanics, Virginia Tech, Blacksburg, VA, USA', 'Serra Hx00FAnter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain', 'BCN MedTech, Department Information Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain']</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['universit maryland baltimore county']</t>
+          <t>['virginia tech', 'universit pompeu fabra', 'universit pompeu fabra']</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>['Department Biomedical Laboratory Science Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic Korea']</t>
+          <t>['Professor, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 ', 'PhD Candidate, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 Lecture Research Assistant, Dept Structural Engineering, Future Univ, Cairo 11835, Egypt']</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['far east universit']</t>
+          <t>['universit manitoba', 'universit manitoba', 'future universit']</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475, 0.7071067811865475, 0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>['National Institute Immunology, New Delhi, India']</t>
+          <t>['Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador']</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['national institute immunology']</t>
+          <t>['salesian universit']</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.5]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>['Department Pathology, University Iowa College Medicine, Iowa City 52242']</t>
+          <t>['Department Transplantation Immunology, Institute Immunology, University Heidelberg, Germany']</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
+          <t>['universit heidelberg']</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>['Institut National la Sante la Recherche Medicale U345, Institut Necker,', 'Centre National la Recherche Scientifique, Unite Recherche Associee 1461,', 'INSERM U25, Hopital Necker, Paris, France']</t>
+          <t>['Graphic Era University,Department ECE,Dehradun,India', 'Graphic Era Hill University,Department ECE,Bhimtal,India']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'centre national la recherche scientifique']</t>
+          <t>['graphic era universit', 'graphic era hill universit']</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['-', 1, '-']</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>['Duke University Medical Center , Durham, N C']</t>
+          <t>['ANKARA HACI BAYRAM VELI UNIVERSITESI', 'KAHRAMANMARAS SUTCU IMAM UNIVERSITESI, KAHRAMANMARAS MESLEK YUKSEKOKULU']</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['duke universit medical center']</t>
+          <t>['kahramanmaras sutcu imam universit']</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2391,29 +2391,29 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>['Division Critical Care, Childrens Hospital Medical Center, Cincinnati, OH 45229', 'Department Pathophysiology, University Medical School Debrecen, Debrecen, Hungary']</t>
+          <t>['Department Pathology, University Maryland, School Medicine, Baltimore 21201']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['childrens hospital medical center', 'universit minnesota medical school']</t>
+          <t>['universit maryland baltimore county']</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[1, 0.61]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>['Departments Pathology Microbiology, Washington University School Medicine From , St Louis, Missouri 63110']</t>
+          <t>['Department Biomedical Laboratory Science Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic Korea']</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['universit washington school medicine']</t>
+          <t>['far east universit']</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2425,97 +2425,97 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>['Professor, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea', 'Resident, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea']</t>
+          <t>['National Institute Immunology, New Delhi, India']</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['chonnam national universit', 'chonnam national universit']</t>
+          <t>['national institute immunology']</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>['Department Psychology, University Toronto, Toronto, ON M5S 3G3, Canada', 'International Research Center Neurointelligence , Institutes Advanced Study , The University Tokyo, Tokyo 1130033, Japan', 'Laboratoire Sciences Cognitives Psycholinguistique, Ecole Normale Superieure, Paris Sciences Lettres, 75005 Paris, France']</t>
+          <t>['Department Pathology, University Iowa College Medicine, Iowa City 52242']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['universit toronto', 'universit tokyo', 'ecole normale superieure', 'laboratoire sciences cognitives psycholinguistique']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[1, 0.816496580927726, 1, 1]</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>['Senior Lecturer Department Civil Labor Law Department Odesa National Maritime University', 'Doctor Law , Professor, Head educational scientific laboratory legal regulation shipping cargo protection, Professor Civil Labor Law Department Odessa National Maritime University']</t>
+          <t>['Institut National la Sante la Recherche Medicale U345, Institut Necker,', 'INSERM U25, Hopital Necker, Paris, France', 'Centre National la Recherche Scientifique, Unite Recherche Associee 1461,']</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['national universit', 'odessa national maritime universit']</t>
+          <t>['institut national la sante la recherche medicale', 'centre national la recherche scientifique']</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[0.7071067811865475, 1]</t>
+          <t>[0.9486832980505138, 1]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>['National Creative Research Initiative Center Calcium Learning,', 'Department Life Science School Environmental Engineering, Pohang University Science Technology, Pohang, South Korea']</t>
+          <t>['Duke University Medical Center , Durham, N C']</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'pohang universit science technology']</t>
+          <t>['duke universit medical center']</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['-', 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>['University Illinois From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas', 'Lerner Marine Laboratory From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas', 'Department Microbiology, University Miami School Medicine From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas']</t>
+          <t>['Division Critical Care, Childrens Hospital Medical Center, Cincinnati, OH 45229', 'Department Pathophysiology, University Medical School Debrecen, Debrecen, Hungary']</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>['universit illinois', 'unmatched organization(s)', 'universit miami']</t>
+          <t>['childrens hospital medical center', 'cooper medical school rowan universit']</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[0.816496580927726, '-', 0.59]</t>
+          <t>[1, 0.61]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>['Faculty Food Technology Biotechnology, University Zagreb, Croatia']</t>
+          <t>['Departments Pathology Microbiology, Washington University School Medicine From , St Louis, Missouri 63110']</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['universit zagreb']</t>
+          <t>['universit washington school medicine']</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2527,63 +2527,63 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>['Национальныи исследовательскии университет Высшая школа экономики, г Москва', 'Institute Information Transmission Problems Russian Academy Sciences , Moscow', 'Математическии институт им ВА Стеклова Россиискои академии наук, г Москва', 'Steklov Mathematical Institute Russian Academy Sciences, Moscow', 'HSE University, Moscow', 'Институт проблем передачи информации им АА Харкевича Россиискои академии наук, г Москва', 'University Malaga, Испания']</t>
+          <t>['Professor, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea', 'Resident, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'universit', 'universit malaga']</t>
+          <t>['chonnam national universit', 'chonnam national universit']</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['-', '-', '-', '-', 0.7071067811865475, '-', 1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>['University Maryland College Park,Department Computer Science', 'University Memphis,Department Computer Science']</t>
+          <t>['Department Psychology, University Toronto, Toronto, ON M5S 3G3, Canada', 'International Research Center Neurointelligence , Institutes Advanced Study , The University Tokyo, Tokyo 1130033, Japan', 'Laboratoire Sciences Cognitives Psycholinguistique, Ecole Normale Superieure, Paris Sciences Lettres, 75005 Paris, France']</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>['universit maryland college park', 'universit memphis']</t>
+          <t>['universit toronto', 'universit tokyo', 'ecole normale superieure', 'laboratoire sciences cognitives psycholinguistique']</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[0.76, 1]</t>
+          <t>[1, 0.816496580927726, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>['Department Psychiatry, University British Columbia, Vancouver, Canada', 'Starling Minds, Vancouver, British Columbia, Canada', 'Department Psychology, University British Columbia, Vancouver, Canada', 'Department Psychology, Simon Fraser University, Burnaby, Canada']</t>
+          <t>['Senior Lecturer Department Civil Labor Law Department Odesa National Maritime University', 'Doctor Law , Professor, Head educational scientific laboratory legal regulation shipping cargo protection, Professor Civil Labor Law Department Odessa National Maritime University']</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['universit british columbia', 'unmatched organization(s)', 'universit british columbia', 'simon fraser universit']</t>
+          <t>['national universit', 'odessa national maritime universit']</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[1, '-', 1, 1]</t>
+          <t>[0.7071067811865475, 1]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>['Almetyevsk State Oil Institute']</t>
+          <t>['National Creative Research Initiative Center Calcium Learning,', 'Department Life Science School Environmental Engineering, Pohang University Science Technology, Pohang, South Korea']</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['almetyevsk state oil institute']</t>
+          <t>['pohang universit science technology']</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2595,148 +2595,148 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>['University Texas Medical Branch, Department Internal Medicine, Galveston 77555, USA']</t>
+          <t>['University Illinois From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas', 'Lerner Marine Laboratory From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas', 'Department Microbiology, University Miami School Medicine From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas']</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['universit texas medical branch galveston']</t>
+          <t>['universit illinois', 'miami universit']</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[0.816496580927726, 0.59]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>['Assistant Professor, Department Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India', 'Department Life Sciences, CHRIST , Hosur Road, Bengaluru 560029, Karnataka, India']</t>
+          <t>['Department Electrical Computer Engineering, National Yang Ming Chiao Tung University, Hsinchu, Taiwan']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['bharathiar universit', 'unmatched organization(s)']</t>
+          <t>['national yang ming chiao tung universit']</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[1, '-']</t>
+          <t>[0.8164965809277261]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>['National University Uzbekistan named after M Ulugbek']</t>
+          <t>['Faculty Food Technology Biotechnology, University Zagreb, Croatia']</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['national universit uzbekistan']</t>
+          <t>['universit zagreb']</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>['Department Pathology, New England Medical Center, Boston, MA 02111']</t>
+          <t>['Институт проблем передачи информации им АА Харкевича Россиискои академии наук, г Москва', 'HSE University, Moscow', 'University Malaga, Испания', 'Steklov Mathematical Institute Russian Academy Sciences, Moscow', 'Национальныи исследовательскии университет Высшая школа экономики, г Москва', 'Математическии институт им ВА Стеклова Россиискои академии наук, г Москва', 'Institute Information Transmission Problems Russian Academy Sciences , Moscow']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['tuftsnew england medical center']</t>
+          <t>['universit', 'universit malaga']</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[0.8660254037844388]</t>
+          <t>[0.7071067811865475, 1]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>['Adıyaman Universitesi']</t>
+          <t>['University Maryland College Park,Department Computer Science', 'University Memphis,Department Computer Science']</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['adıyaman universit']</t>
+          <t>['universit maryland college park', 'universit memphis']</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.76, 1]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>['University Washington Fred Hutchinson Cancer Center']</t>
+          <t>['Department Psychology, University British Columbia, Vancouver, Canada', 'Starling Minds, Vancouver, British Columbia, Canada', 'Department Psychiatry, University British Columbia, Vancouver, Canada', 'Department Psychology, Simon Fraser University, Burnaby, Canada']</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['universit washington']</t>
+          <t>['universit british columbia', 'universit british columbia', 'simon fraser universit']</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>['Department Clinical Laboratory The Third Medical Centre Chinese PLA General Hospital The Training Site Postgraduate Jinzhou Medical University Beijing China', 'State Key Laboratory Pathogen Biosecurity Beijing Institute Biotechnology Beijing China', 'Department Clinical Laboratory The Third Medical Centre Chinese PLA General Hospital Beijing China']</t>
+          <t>['Almetyevsk State Oil Institute']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['china medical universit', 'unmatched organization(s)']</t>
+          <t>['almetyevsk state oil institute']</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[0.7071067811865477, '-', '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>['Sobolev Institute Mathematics, Siberian Branch Russian Academy Sciences']</t>
+          <t>['University Texas Medical Branch, Department Internal Medicine, Galveston 77555, USA']</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['siberian branch russian academy sciences']</t>
+          <t>['universit texas medical branch galveston']</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>['Brown University, Providence, RI, USA']</t>
+          <t>['Assistant Professor, Department Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India', 'Department Life Sciences, CHRIST , Hosur Road, Bengaluru 560029, Karnataka, India']</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['brown universit']</t>
+          <t>['bharathiar universit']</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2748,233 +2748,233 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>['School Mechanical Engineering, Xinjiang University, Wulumuqi, Peoples Republic China']</t>
+          <t>['National University Uzbekistan named after M Ulugbek']</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['xinjiang universit']</t>
+          <t>['national universit uzbekistan']</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>['Department Pathology, University Michigan Medical School, Ann Arbor 48109, USA']</t>
+          <t>['Department Pathology, New England Medical Center, Boston, MA 02111']</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['universit michigan medical school']</t>
+          <t>['tuftsnew england medical center']</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>['Department Forest Engineering, Resources, Management Oregon State University Corvallis OR USA']</t>
+          <t>['Adıyaman Universitesi']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['state universit management']</t>
+          <t>['adıyaman universit']</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[0.52]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>['Cancer Biology Research Laboratory, Department Radiology, Stanford University School Medicine From , Stanford, California 94305']</t>
+          <t>['University Washington Fred Hutchinson Cancer Center']</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['stanford universit school medicine']</t>
+          <t>['universit washington']</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>['Dermatology Branch, National Cancer Institute, Bethesda, MD 20892']</t>
+          <t>['Department Clinical Laboratory The Third Medical Centre Chinese PLA General Hospital Beijing China', 'State Key Laboratory Pathogen Biosecurity Beijing Institute Biotechnology Beijing China', 'Department Clinical Laboratory The Third Medical Centre Chinese PLA General Hospital The Training Site Postgraduate Jinzhou Medical University Beijing China']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['china medical universit']</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865477]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>['Departments Medicine Microbiology, College Physicians Surgeons, Columbia University From , New York, New York']</t>
+          <t>['Sobolev Institute Mathematics, Siberian Branch Russian Academy Sciences']</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['columbia universit']</t>
+          <t>['siberian branch russian academy sciences']</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[0.82]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>['Institut National la Sante la Recherche Medicale, CJF 9501, Institut Curie, Section Recherche, Paris, France', 'Consiglio Nazionale delle Ricerche, Center Cellular Molecular Pharmacology, Milan, Italy']</t>
+          <t>['Brown University, Providence, RI, USA']</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['institut curie', 'unmatched organization(s)']</t>
+          <t>['brown universit']</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[1, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>['Henley Business School, UK', 'University Johannesburg, South Africa', 'Hult International Business School, Greece', 'Glasgow Caledonian University, UK']</t>
+          <t>['School Mechanical Engineering, Xinjiang University, Wulumuqi, Peoples Republic China']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'universit johannesburg', 'hult international business school', 'glasgow caledonian universit']</t>
+          <t>['xinjiang universit']</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['-', 1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>['From Cardiovascular Medicine Section, Department Medicine, Boston Medical Center Myocardial Biology Unit, Boston University School Medicine, Boston, Mass , Institute Cell Biology, Swiss Federal Institute Technology, Zurich, Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland ']</t>
+          <t>['Department Pathology, University Michigan Medical School, Ann Arbor 48109, USA']</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['boston universit', 'swiss federal institute technology lausanne', 'institute cell biology']</t>
+          <t>['universit michigan medical school']</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[0.37, 0.89, 1]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>['BURSA TECHNICAL UNIVERSITY', 'BURSA TEKNIK UNIVERSITESI']</t>
+          <t>['Department Forest Engineering, Resources, Management Oregon State University Corvallis OR USA']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['bursa technical universit', 'bursa teknik universit']</t>
+          <t>['state universit management']</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.52]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>['Department Biochemistry, Kyushu University School Dentistry, Fukuoka, Japan']</t>
+          <t>['Cancer Biology Research Laboratory, Department Radiology, Stanford University School Medicine From , Stanford, California 94305']</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['kyushu universit']</t>
+          <t>['stanford universit school medicine']</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>['Department Pathology, Yale University School Medicine From , New Haven, Connecticut']</t>
+          <t>['Dermatology Branch, National Cancer Institute, Bethesda, MD 20892']</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['yale universit']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>['HeriotWatt University']</t>
+          <t>['Departments Medicine Microbiology, College Physicians Surgeons, Columbia University From , New York, New York']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['heriotwatt universit']</t>
+          <t>['columbia universit']</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.82]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>['Dept Electrical Electronics Engineering, Yasar University, Izmir, Turkey', 'The Graduate School Natural Sciences, Dokuz Eylul University, Izmir, Turkey']</t>
+          <t>['Consiglio Nazionale delle Ricerche, Center Cellular Molecular Pharmacology, Milan, Italy', 'Institut National la Sante la Recherche Medicale, CJF 9501, Institut Curie, Section Recherche, Paris, France']</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['yasar universit', 'dokuz eylul universit']</t>
+          <t>['institut national la sante la recherche medicale', 'institut curie']</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2986,199 +2986,199 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>['Section on Biologic Structure, Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014']</t>
+          <t>['University Johannesburg, South Africa', 'Glasgow Caledonian University, UK', 'Hult International Business School, Greece', 'Henley Business School, UK']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['universit johannesburg', 'glasgow caledonian universit', 'hult international business school']</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>['AFYON KOCATEPE UNIVERSITESI, AFYON MESLEK YUKSEKOKULU']</t>
+          <t>['From Cardiovascular Medicine Section, Department Medicine, Boston Medical Center Myocardial Biology Unit, Boston University School Medicine, Boston, Mass , Institute Cell Biology, Swiss Federal Institute Technology, Zurich, Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland ']</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['afyon kocatepe universit']</t>
+          <t>['boston universit', 'swiss federal institute technology lausanne', 'institute cell biology']</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.37, 0.89, 1]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>['Department Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvagen 18D, SE752 36 Uppsala, Sweden']</t>
+          <t>['BURSA TEKNIK UNIVERSITESI', 'BURSA TECHNICAL UNIVERSITY']</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['uppsala universit']</t>
+          <t>['bursa teknik universit', 'bursa technical universit']</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>['Chemical Power Source Development Laboratory, 3M Company, St Paul, Minnesota 551441000, United States America', 'Fluorochemical Technology Center', 'Cooperative Research Center, Tokyo University Agriculture Technology, Koganei, Tokyo 1848588, Japan']</t>
+          <t>['Department Biochemistry, Kyushu University School Dentistry, Fukuoka, Japan']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'tokyo universit agriculture technology']</t>
+          <t>['kyushu universit']</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['-', '-', 1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>['Department Medicine, University Utah School Medicine, Salt Lake City 84132, USA']</t>
+          <t>['Department Pathology, Yale University School Medicine From , New Haven, Connecticut']</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['universit utah']</t>
+          <t>['yale universit']</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>['Department Chemistry, University California Santa Barbara , Boston, Massachusetts 02115 , , Santa Barbara, California 93106', 'Center Blood Research, 800 Huntington Avenue , Boston, Massachusetts 02115 , , Santa Barbara, California 93106']</t>
+          <t>['HeriotWatt University']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['universit california santa barbara', 'unmatched organization(s)']</t>
+          <t>['heriotwatt universit']</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[0.85, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>['Institute Systems Robotics, Instituto Superior Tx00E9cnico,Lisbon,Portugal', 'x00C9cole Polytechnique Fx00E9dx00E9rale Lausanne,Distributed Intelligent Systems Algorithms Laboratory,Lausanne,Switzerland']</t>
+          <t>['Russian University Transport ']</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['institute intelligent systems robotics', 'unmatched organization(s)']</t>
+          <t>['russian universit transport']</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>['Contribution Departamento Quimica Organica I, Facultad Quimica, Universidad del Pais Vasco, Apdo 1072, 20080 San Sebastian, Spain Departamento Quimica Aplicada, Universidad Publica Navarra, Campus Arrosadia, 31006 Pamplona, Spain Unidade Resonancia Magnetica, RIAIDT, CACTUS, Universidad Santiago Compostela, 15782 A Coruna, Spain Organischchemisches Institut der Universitat Zurich, Winterthurerstrasse 190, CH8057, Zurich, Switzerland']</t>
+          <t>['Dept Electrical Electronics Engineering, Yasar University, Izmir, Turkey', 'The Graduate School Natural Sciences, Dokuz Eylul University, Izmir, Turkey']</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['universidad publica navarra', 'universidad santiago compostela', 'universidad del pais vasco']</t>
+          <t>['yasar universit', 'dokuz eylul universit']</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>['OSMANIYE KORKUT ATA UNIVERSITESI']</t>
+          <t>['Section on Biologic Structure, Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['osmaniye korkut ata universit']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>['School Public Health, Department Environmental Health, Moi University, Eldoret, Kenya', 'School Public Health, Department Health Policy Management Human Nutrition, Moi University, Eldoret, Kenya', 'School Education, Department Education Psychology, Moi University, Eldoret, Kenya', 'Department Population Health, Aga Khan University East Africa, Nairobi', 'School School Nursing, Department Midwifery Gender, Moi University, Eldoret, Kenya']</t>
+          <t>['AFYON KOCATEPE UNIVERSITESI, AFYON MESLEK YUKSEKOKULU']</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['moi universit', 'moi universit', 'moi universit', 'east africa universit', 'moi universit']</t>
+          <t>['afyon kocatepe universit']</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0.71, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>['State Key Laboratory Molecular Oncology, National Cancer CenterNational Clinical Research Center CancerCancer Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China', 'Institute Geriatric Medicine, Chinese Academy Medical Sciences , Beijing , China', 'Department Gastroenterology, Beijing Hospital, National Center Gerontology', 'Department Gastroenterology, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China', 'Department Internal Medicine, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China']</t>
+          <t>['Department Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvagen 18D, SE752 36 Uppsala, Sweden']</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college', 'unmatched organization(s)', 'national center geriatrics gerontology', 'beijing hospital', 'peking union medical college hospital', 'chinese academy medical sciences peking union medical college', 'peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
+          <t>['uppsala universit']</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[1, '-', 0.8660254037844388, 1, 1, 1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>['School Electrical Engineering Automation, Harbin Institute Technology, Harbin, China']</t>
+          <t>['Chemical Power Source Development Laboratory, 3M Company, St Paul, Minnesota 551441000, United States America', 'Fluorochemical Technology Center', 'Cooperative Research Center, Tokyo University Agriculture Technology, Koganei, Tokyo 1848588, Japan']</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
+          <t>['tokyo universit agriculture technology']</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3190,80 +3190,80 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>['Departments Surgery Microbiology Public Health, Michigan State University From , East Lansing, Michigan 48824']</t>
+          <t>['Department Medicine, University Utah School Medicine, Salt Lake City 84132, USA']</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['michigan state universit']</t>
+          <t>['universit utah']</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[0.73]</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>['Ahsanullah University Science Technology,Dept Electrical Electronic Engineering,Dhaka,Bangladesh']</t>
+          <t>['Center Blood Research, 800 Huntington Avenue , Boston, Massachusetts 02115 , , Santa Barbara, California 93106', 'Department Chemistry, University California Santa Barbara , Boston, Massachusetts 02115 , , Santa Barbara, California 93106']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['ahsanullah universit science technology']</t>
+          <t>['universit california santa barbara']</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.85]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>['Osaka University']</t>
+          <t>['Institute Systems Robotics, Instituto Superior Tx00E9cnico,Lisbon,Portugal', 'x00C9cole Polytechnique Fx00E9dx00E9rale Lausanne,Distributed Intelligent Systems Algorithms Laboratory,Lausanne,Switzerland']</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['osaka universit']</t>
+          <t>['institute intelligent systems robotics']</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>['Department Microbiology, University Texas Health Science Center, San Antonio 78284']</t>
+          <t>['Contribution Departamento Quimica Organica I, Facultad Quimica, Universidad del Pais Vasco, Apdo 1072, 20080 San Sebastian, Spain Departamento Quimica Aplicada, Universidad Publica Navarra, Campus Arrosadia, 31006 Pamplona, Spain Unidade Resonancia Magnetica, RIAIDT, CACTUS, Universidad Santiago Compostela, 15782 A Coruna, Spain Organischchemisches Institut der Universitat Zurich, Winterthurerstrasse 190, CH8057, Zurich, Switzerland']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['universit texas health science center houston']</t>
+          <t>['universidad del pais vasco', 'universidad santiago compostela', 'universidad publica navarra']</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[0.79]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>['Rockefeller University , New York, New York 10021']</t>
+          <t>['OSMANIYE KORKUT ATA UNIVERSITESI']</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['rockefeller universit']</t>
+          <t>['osmaniye korkut ata universit']</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3275,46 +3275,46 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>['Chuvash State University']</t>
+          <t>['School School Nursing, Department Midwifery Gender, Moi University, Eldoret, Kenya', 'School Public Health, Department Environmental Health, Moi University, Eldoret, Kenya', 'School Public Health, Department Health Policy Management Human Nutrition, Moi University, Eldoret, Kenya', 'School Education, Department Education Psychology, Moi University, Eldoret, Kenya', 'Department Population Health, Aga Khan University East Africa, Nairobi']</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['chuvash state universit']</t>
+          <t>['moi universit', 'moi universit', 'moi universit', 'moi universit', 'aga khan universit']</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1, 1, 0.71]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>['Cantab Pharmaceuticals Limited, Cambridge, United Kingdom', 'Department Paediatric Gastroenterology, St Bartholomews The Royal London School Medicine Dentistry, St Bartholomews Hospital, London, United Kingdom']</t>
+          <t>['State Key Laboratory Molecular Oncology, National Cancer CenterNational Clinical Research Center CancerCancer Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China', 'Department Gastroenterology, Beijing Hospital, National Center Gerontology', 'Institute Geriatric Medicine, Chinese Academy Medical Sciences , Beijing , China', 'Department Gastroenterology, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China', 'Department Internal Medicine, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'st bartholomews hospital']</t>
+          <t>['chinese academy medical sciences peking union medical college', 'national center geriatrics gerontology', 'beijing hospital', 'peking union medical college hospital', 'chinese academy medical sciences peking union medical college', 'peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['-', 1]</t>
+          <t>[1, 0.8660254037844388, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>['Samara State University Economics ']</t>
+          <t>['School Electrical Engineering Automation, Harbin Institute Technology, Harbin, China']</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['samara state universit economics']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3326,29 +3326,29 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>['Universidad Tecnica Machala, Programa maestria en Medicina Veterinaria, mencion Clinica y Cirugia Pequenas Especies Machala, El Oro, Ecuador RenatoVetDerm Davie, Florida, Estados Unidos America', 'Universidad Cientifica del Sur Lima, Peru']</t>
+          <t>['Departments Surgery Microbiology Public Health, Michigan State University From , East Lansing, Michigan 48824']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['universidad tecnica machala', 'universidad cientifica del sur']</t>
+          <t>['michigan state universit']</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[1, 0.8944271909999159]</t>
+          <t>[0.73]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>['Peng Cheng Laboratory,Shenzhen,China']</t>
+          <t>['Ahsanullah University Science Technology,Dept Electrical Electronic Engineering,Dhaka,Bangladesh']</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['peng cheng laboratory']</t>
+          <t>['ahsanullah universit science technology']</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3360,12 +3360,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>['Department Plant Biology, University Illinois, Urbana 61801, USA']</t>
+          <t>['Osaka University']</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['universit illinois']</t>
+          <t>['osaka universit']</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3377,80 +3377,80 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>['From Department Cardiovascular Medicine, School Medical Sciences , Department Biophysics, Faculty Pharmaceutical Sciences , Kyushu University, Fukuoka, Japan']</t>
+          <t>['Department Microbiology, University Texas Health Science Center, San Antonio 78284']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['kyushu universit']</t>
+          <t>['universit texas health science center tyler']</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.79]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>['Graduate School Social Sciences, Waseda University, Japan', 'Faculty Social Sciences, Waseda University, Japan']</t>
+          <t>['Rockefeller University , New York, New York 10021']</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['waseda universit', 'waseda universit']</t>
+          <t>['rockefeller universit']</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>['A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States', 'M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain', 'J Perianez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain']</t>
+          <t>['Chuvash State University']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz', 'memorial sloan kettering cancer center', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz']</t>
+          <t>['chuvash state universit']</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[0.8944271909999159, 1, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>['Junior Fellow Society Fellows, Harvard University Cambridge, MA USA', 'Postdoctoral fellow MandelScholion Research Center, Hebrew University Jerusalem Jerusalem Israel']</t>
+          <t>['Cantab Pharmaceuticals Limited, Cambridge, United Kingdom', 'Department Paediatric Gastroenterology, St Bartholomews The Royal London School Medicine Dentistry, St Bartholomews Hospital, London, United Kingdom']</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['cambridge universit', 'hebrew universit jerusalem']</t>
+          <t>['st bartholomews hospital']</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[0.47, 0.9428090415820636]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>['Department Gynecology, Womens Hospital, School Medicine, Zhejiang University, Hangzhou 310006, China']</t>
+          <t>['Samara State University Economics ']</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['zhejiang universit']</t>
+          <t>['samara state universit economics']</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3462,29 +3462,29 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>['Lecturer, Department Government Politics , University College Cork , Ireland', 'Director, Centre Local Regional Governance , University College Cork , Ireland', 'Former Senior Executive Officer, Cork City Council , Ireland', 'PhD candidate, Department Government Politics , University College Cork , Ireland']</t>
+          <t>['Universidad Cientifica del Sur Lima, Peru', 'Universidad Tecnica Machala, Programa maestria en Medicina Veterinaria, mencion Clinica y Cirugia Pequenas Especies Machala, El Oro, Ecuador RenatoVetDerm Davie, Florida, Estados Unidos America']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['universit college cork', 'universit college cork', 'unmatched organization(s)', 'universit college cork']</t>
+          <t>['universidad cientifica del sur', 'universidad tecnica machala']</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[1, 1, '-', 1]</t>
+          <t>[0.8944271909999159, 1]</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>['School Sport, Exercise Health Sciences, Loughborough University, Loughborough, UK']</t>
+          <t>['Peng Cheng Laboratory,Shenzhen,China']</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['loughborough universit']</t>
+          <t>['peng cheng laboratory']</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3496,12 +3496,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>['Laboratory Plant Molecular Biology, Rockefeller University, New York, New York 100216399']</t>
+          <t>['Department Plant Biology, University Illinois, Urbana 61801, USA']</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['rockefeller universit']</t>
+          <t>['universit illinois']</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3513,131 +3513,131 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>['National Heart Centre, Singapore', 'National University Hospital, Singapore']</t>
+          <t>['From Department Cardiovascular Medicine, School Medical Sciences , Department Biophysics, Faculty Pharmaceutical Sciences , Kyushu University, Fukuoka, Japan']</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['national heart centre singapore', 'national universit hospital']</t>
+          <t>['kyushu universit']</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>['Department Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511']</t>
+          <t>['Graduate School Social Sciences, Waseda University, Japan', 'Faculty Social Sciences, Waseda University, Japan']</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['yale universit']</t>
+          <t>['waseda universit', 'waseda universit']</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>['Higher Colleges Technology,Faculty Engineering Technology Science,Dubai,United Arab Emirates', 'Lebanese University,Faculty Engineering,Tripoli,Lebanon', 'Electricity LEBANON, Deir Ammar Power Plant,Tripoli,Lebanon']</t>
+          <t>['A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States', 'J Perianez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['higher colleges technology', 'lebanese universit', 'unmatched organization(s)']</t>
+          <t>['hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'memorial sloan kettering cancer center', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz', 'hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[1, 1, '-']</t>
+          <t>[0.8944271909999159, 0.8944271909999159, 1, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159, 0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>['Associate Professor, Dept Energy Systems Engineering, Technology Faculty, Karabuk Univ, Iron Steel Campus, Karabuk 78050, Turkey ORCID ']</t>
+          <t>['Postdoctoral fellow MandelScholion Research Center, Hebrew University Jerusalem Jerusalem Israel', 'Junior Fellow Society Fellows, Harvard University Cambridge, MA USA']</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['karabuk universit']</t>
+          <t>['hebrew universit jerusalem', 'harvard universit']</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[0.9428090415820636, 0.47]</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>['Department Biology Center Cancer Research, Massachusetts Institute Technology From , Cambridge, Massachusetts 02139']</t>
+          <t>['Department Gynecology, Womens Hospital, School Medicine, Zhejiang University, Hangzhou 310006, China']</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
+          <t>['zhejiang universit']</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[0.8660254037844388]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>['Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea']</t>
+          <t>['PhD candidate, Department Government Politics , University College Cork , Ireland', 'Lecturer, Department Government Politics , University College Cork , Ireland', 'Former Senior Executive Officer, Cork City Council , Ireland', 'Director, Centre Local Regional Governance , University College Cork , Ireland']</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['sungkyunkwan universit']</t>
+          <t>['universit college cork', 'universit college cork', 'universit college cork']</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>['Tohoku University', 'Tokyo Institute Technology']</t>
+          <t>['School Sport, Exercise Health Sciences, Loughborough University, Loughborough, UK']</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['tohoku universit', 'tokyo institute technology']</t>
+          <t>['loughborough universit']</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>['Department Mathematics, Shaoxing University, Shaoxing 312000, P R China']</t>
+          <t>['Laboratory Plant Molecular Biology, Rockefeller University, New York, New York 100216399']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['shaoxing universit']</t>
+          <t>['rockefeller universit']</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3649,97 +3649,97 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>['Department Microbiology, Washington University School Medicine From , St Louis, Missouri 63110']</t>
+          <t>['National University Hospital, Singapore', 'National Heart Centre, Singapore']</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['universit washington school medicine']</t>
+          <t>['national universit hospital', 'national heart centre singapore']</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>['Department Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States', 'Department Radiology, Loyola University Medical Center, Maywood, Illinois, United States']</t>
+          <t>['Department Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['loyola universit medical center', 'loyola universit medical center']</t>
+          <t>['yale universit']</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>['Departments Pathology, Dermatology, Medicine, Tufts University School Medicine From , Boston, Massachusetts 02111']</t>
+          <t>['Lebanese University,Faculty Engineering,Tripoli,Lebanon', 'Electricity LEBANON, Deir Ammar Power Plant,Tripoli,Lebanon', 'Higher Colleges Technology,Faculty Engineering Technology Science,Dubai,United Arab Emirates']</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['tufts universit']</t>
+          <t>['lebanese universit', 'higher colleges technology']</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>['Kahramanmaras Sutcu Imam Universitesi Ilahiyat Fakultesi', 'KAHRAMANMARAS SUTCU IMAM UNIVERSITESI']</t>
+          <t>['Associate Professor, Dept Energy Systems Engineering, Technology Faculty, Karabuk Univ, Iron Steel Campus, Karabuk 78050, Turkey ORCID ']</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit', 'kahramanmaras sutcu imam universit']</t>
+          <t>['karabuk universit']</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[0.8164965809277261, 1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>['School Microelectronics, Northwestern Polytechnical University,Xix0027an,China']</t>
+          <t>['Department Biology Center Cancer Research, Massachusetts Institute Technology From , Cambridge, Massachusetts 02139']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universit']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>['Duke Clinical Research Institute, Duke University Medical Center, Durham, NC']</t>
+          <t>['Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea']</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['duke universit medical center']</t>
+          <t>['sungkyunkwan universit']</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3751,131 +3751,131 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>['Department Pediatrics, University Tennessee, Memphis 38163']</t>
+          <t>['Tokyo Institute Technology', 'Tohoku University']</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['universit tennessee']</t>
+          <t>['tokyo institute technology', 'tohoku universit']</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>['Department Pathology Laboratory Medicine, University Pennsylvania School Medicine, Philadelphia 191046082']</t>
+          <t>['Department Mathematics, Shaoxing University, Shaoxing 312000, P R China']</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['universit pennsylvania']</t>
+          <t>['shaoxing universit']</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>['Department Pathology, Harvard Medical School From , La Jolla, California , , Boston, Massachusetts', 'Department Experimental Pathology, Scripps Clinic Research Foundation From , La Jolla, California , , Boston, Massachusetts']</t>
+          <t>['Department Microbiology, Washington University School Medicine From , St Louis, Missouri 63110']</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['harvard medical school', 'unmatched organization(s)']</t>
+          <t>['universit washington school medicine']</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>['Ehime University']</t>
+          <t>['Department Radiology, Loyola University Medical Center, Maywood, Illinois, United States', 'Department Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['ehime universit']</t>
+          <t>['loyola universit medical center', 'loyola universit medical center']</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>['Aljarirr Alshamali primary health care center', 'Qusaiba Hospital', 'Qassim University']</t>
+          <t>['Departments Pathology, Dermatology, Medicine, Tufts University School Medicine From , Boston, Massachusetts 02111']</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['unmatched organization(s)', 'qassim universit']</t>
+          <t>['tufts universit']</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['-', '-', 1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>['Department Physics, Pukyong National University', 'Department Electrical Engineering, Tongmyong University']</t>
+          <t>['Kahramanmaras Sutcu Imam Universitesi Ilahiyat Fakultesi', 'KAHRAMANMARAS SUTCU IMAM UNIVERSITESI']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['pukyong national universit', 'tongmyong universit']</t>
+          <t>['kahramanmaras sutcu imam universit', 'kahramanmaras sutcu imam universit']</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.8164965809277261, 1]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>['Eastern minnesota university']</t>
+          <t>['School Microelectronics, Northwestern Polytechnical University,Xix0027an,China']</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['universit minnesota']</t>
+          <t>['northwestern polytechnical universit']</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[0.82]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>['Amur State University']</t>
+          <t>['Duke Clinical Research Institute, Duke University Medical Center, Durham, NC']</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['amur state universit']</t>
+          <t>['duke universit medical center']</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3887,66 +3887,202 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>['Department Forest Conservation Sciences, Faculty Forestry, Forest Sciences Centre, University British Columbia , Vancouver, BC V6T 1Z4 , Canada', 'Key Laboratory Genetics Breeding Forest Trees Ornamental Plants, Ministry Education, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China', 'National Engineering Laboratory Tree Breeding, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China', 'CSIRO Agriculture Food , Black Mountain, Canberra ACT 2601 , Australia']</t>
+          <t>['Department Pediatrics, University Tennessee, Memphis 38163']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['universit british columbia', 'beijing forestry universit', 'beijing forestry universit', 'unmatched organization(s)']</t>
+          <t>['universit tennessee']</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[1, 1, 1, '-']</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>['Veer Narmad South Gujarat University, India', 'Narmada College Management, India']</t>
+          <t>['Department Pathology Laboratory Medicine, University Pennsylvania School Medicine, Philadelphia 191046082']</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['veer narmad south gujarat universit', 'unmatched organization(s)']</t>
+          <t>['universit pennsylvania']</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[0.91, '-']</t>
+          <t>[0.816496580927726]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>['Department Medicine, University California San Diego, La Jolla CA 92093', 'Division Molecular Immunology, La Jolla Institute Allergy Immunology, San Diego, CA 92121', 'Institute Biochemistry, University Lausanne, Epalinges, Switzerland', 'Department Immunology Microbiology, Rush Medical College, Chicago, IL 60612']</t>
+          <t>['Department Experimental Pathology, Scripps Clinic Research Foundation From , La Jolla, California , , Boston, Massachusetts', 'Department Pathology, Harvard Medical School From , La Jolla, California , , Boston, Massachusetts']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['universit california san diego', 'la jolla institute allergy immunology', 'universit lausanne', 'unmatched organization(s)']</t>
+          <t>['harvard medical school']</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[0.71, 1, 1, '-']</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>['Ehime University']</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>['ehime universit']</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>['Qusaiba Hospital', 'Aljarirr Alshamali primary health care center', 'Qassim University']</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>['qassim universit']</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>['Department Physics, Pukyong National University', 'Department Electrical Engineering, Tongmyong University']</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>['pukyong national universit', 'tongmyong universit']</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>['Eastern minnesota university']</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>['eastern universit']</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>[0.82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>['Amur State University']</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>['amur state universit']</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>['Key Laboratory Genetics Breeding Forest Trees Ornamental Plants, Ministry Education, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China', 'Department Forest Conservation Sciences, Faculty Forestry, Forest Sciences Centre, University British Columbia , Vancouver, BC V6T 1Z4 , Canada', 'National Engineering Laboratory Tree Breeding, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China', 'CSIRO Agriculture Food , Black Mountain, Canberra ACT 2601 , Australia']</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>['beijing forestry universit', 'universit british columbia', 'beijing forestry universit']</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>['Narmada College Management, India', 'Veer Narmad South Gujarat University, India']</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>['veer narmad south gujarat universit']</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>[0.91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>['Institute Biochemistry, University Lausanne, Epalinges, Switzerland', 'Division Molecular Immunology, La Jolla Institute Allergy Immunology, San Diego, CA 92121', 'Department Medicine, University California San Diego, La Jolla CA 92093', 'Department Immunology Microbiology, Rush Medical College, Chicago, IL 60612']</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>['universit lausanne', 'la jolla institute allergy immunology', 'universit california san diego medical center']</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>[1, 1, 0.71]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
           <t>['Department Molecular Pharmacology Biological Chemistry, Northwestern University, 303 East Chicago Avenue, Chicago, Illinois 60611']</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>['northwestern universit']</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>[1]</t>
         </is>
